--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/NumericFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/NumericFunctions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14460" windowHeight="13905"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Actual</t>
   </si>
@@ -193,6 +193,9 @@
   <si>
     <t>Custom check</t>
   </si>
+  <si>
+    <t>MROUND</t>
+  </si>
 </sst>
 </file>
 
@@ -213,6 +216,8 @@
       <u/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +250,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -565,9 +682,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q465"/>
+  <dimension ref="A1:Q477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:Q477"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
@@ -11162,24 +11281,355 @@
         <v>1</v>
       </c>
     </row>
+    <row r="467" spans="1:17">
+      <c r="A467">
+        <v>0</v>
+      </c>
+      <c r="B467">
+        <f>MROUND(C467,D467)</f>
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0.03</v>
+      </c>
+      <c r="J467" s="1">
+        <v>2</v>
+      </c>
+      <c r="K467" t="s">
+        <v>57</v>
+      </c>
+      <c r="L467" t="s">
+        <v>57</v>
+      </c>
+      <c r="P467" t="b">
+        <f t="shared" ref="P467:P477" si="117">OR(ISBLANK(B467),IF(ISERROR(B467),ERROR.TYPE(B467)=IF(ISBLANK(M467),ERROR.TYPE(A467),ERROR.TYPE(M467)),IF(ISBLANK(M467),AND(NOT(ISBLANK(A467)),A467=B467),B467=M467)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q467" t="b">
+        <f t="shared" ref="Q467:Q477" si="118">IF(ISBLANK(O467),IF(ISERROR(P467),FALSE,P467),O467)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17">
+      <c r="A468">
+        <v>0.03</v>
+      </c>
+      <c r="B468">
+        <f>MROUND(C468,D468)</f>
+        <v>0.03</v>
+      </c>
+      <c r="C468">
+        <v>2.9989999999999999E-2</v>
+      </c>
+      <c r="D468">
+        <v>0.03</v>
+      </c>
+      <c r="J468" s="1">
+        <v>2</v>
+      </c>
+      <c r="P468" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q468" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17">
+      <c r="A469">
+        <v>0.03</v>
+      </c>
+      <c r="B469">
+        <f>MROUND(C469,D469)</f>
+        <v>0.03</v>
+      </c>
+      <c r="C469">
+        <v>0.03</v>
+      </c>
+      <c r="D469">
+        <v>0.03</v>
+      </c>
+      <c r="J469" s="1">
+        <v>2</v>
+      </c>
+      <c r="P469" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q469" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17">
+      <c r="A470">
+        <v>0.03</v>
+      </c>
+      <c r="B470">
+        <f>MROUND(C470,D470)</f>
+        <v>0.03</v>
+      </c>
+      <c r="C470">
+        <v>3.0009999999999998E-2</v>
+      </c>
+      <c r="D470">
+        <v>0.03</v>
+      </c>
+      <c r="J470" s="1">
+        <v>2</v>
+      </c>
+      <c r="P470" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q470" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17">
+      <c r="A471">
+        <v>640000</v>
+      </c>
+      <c r="B471">
+        <f t="shared" ref="B471:B477" si="119">MROUND(C471,D471)</f>
+        <v>640000</v>
+      </c>
+      <c r="C471">
+        <v>639999.9</v>
+      </c>
+      <c r="D471">
+        <v>128000</v>
+      </c>
+      <c r="J471" s="1">
+        <v>2</v>
+      </c>
+      <c r="P471" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q471" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17">
+      <c r="A472">
+        <v>0</v>
+      </c>
+      <c r="B472">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>-0.03</v>
+      </c>
+      <c r="J472" s="1">
+        <v>2</v>
+      </c>
+      <c r="P472" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q472" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17">
+      <c r="A473">
+        <v>-0.03</v>
+      </c>
+      <c r="B473">
+        <f t="shared" si="119"/>
+        <v>-0.03</v>
+      </c>
+      <c r="C473">
+        <v>-2.9989999999999999E-2</v>
+      </c>
+      <c r="D473">
+        <v>-0.03</v>
+      </c>
+      <c r="J473" s="1">
+        <v>2</v>
+      </c>
+      <c r="P473" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q473" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17">
+      <c r="A474">
+        <v>-0.03</v>
+      </c>
+      <c r="B474">
+        <f t="shared" si="119"/>
+        <v>-0.03</v>
+      </c>
+      <c r="C474">
+        <v>-3.0009999999999998E-2</v>
+      </c>
+      <c r="D474">
+        <v>-0.03</v>
+      </c>
+      <c r="J474" s="1">
+        <v>2</v>
+      </c>
+      <c r="P474" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q474" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
+      <c r="A475" t="s">
+        <v>51</v>
+      </c>
+      <c r="B475" t="e">
+        <f t="shared" si="119"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C475">
+        <v>3.0009999999999998E-2</v>
+      </c>
+      <c r="D475">
+        <v>-0.03</v>
+      </c>
+      <c r="J475" s="1">
+        <v>2</v>
+      </c>
+      <c r="M475" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P475" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q475" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17">
+      <c r="A476">
+        <v>3</v>
+      </c>
+      <c r="B476">
+        <f t="shared" si="119"/>
+        <v>3</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+      <c r="D476">
+        <v>3</v>
+      </c>
+      <c r="J476" s="1">
+        <v>2</v>
+      </c>
+      <c r="P476" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q476" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17">
+      <c r="A477">
+        <v>-3</v>
+      </c>
+      <c r="B477">
+        <f t="shared" si="119"/>
+        <v>-3</v>
+      </c>
+      <c r="C477">
+        <v>-4</v>
+      </c>
+      <c r="D477">
+        <v>-3</v>
+      </c>
+      <c r="J477" s="1">
+        <v>2</v>
+      </c>
+      <c r="P477" t="b">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="Q477" t="b">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A2:A10000">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I10000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A467:A477">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q467),Q467))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M467),ISBLANK(O467)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C467:I477">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+      <formula>$J467&gt;COLUMN(C467)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M467:M477">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M467)),IF(ISERROR(A467),ERROR.TYPE(A467)=ERROR.TYPE(M467),A467=M467))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A467:A477">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q467),Q467))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M467),ISBLANK(O467)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C467:I477">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$J467&gt;COLUMN(C467)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M467:M477">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M467)),IF(ISERROR(A467),ERROR.TYPE(A467)=ERROR.TYPE(M467),A467=M467))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
